--- a/data/graduates-major-dictionary.xlsx
+++ b/data/graduates-major-dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t xml:space="preserve">nazwazmiennej</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mediana średnich miesięcznych wynagrodzeń ze wszystkich źródeł w piątym roku po uzyskaniu dyplomu absolwentów wśród absolwentów bez doświadczenia pracy przed uzyskaniem dyplomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_WWZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Względny Wskaźnik Zarobków absolwentów po uzyskaniu dyplomu</t>
   </si>
   <si>
     <t xml:space="preserve">P_WWZ_DOSW</t>
@@ -1440,8 +1446,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="47:47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,7 +2984,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
     <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/graduates-major-dictionary.xlsx
+++ b/data/graduates-major-dictionary.xlsx
@@ -1247,9 +1247,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1446,8 +1450,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="47:47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1756,7 +1760,7 @@
       <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
